--- a/Document/Master Schedule/Master Schedule_Group1.xlsx
+++ b/Document/Master Schedule/Master Schedule_Group1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minhn\OneDrive\Desktop\OJT\group1\Document\Master Schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF8F588-805C-4634-8BB6-43204428ECB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B65D5B-F1D5-49FB-91A2-A6E0FB54E6A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="874" xr2:uid="{38FC2611-F5B9-4AE9-BA98-008ED0242282}"/>
   </bookViews>
@@ -1048,7 +1048,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1284,10 +1284,13 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1311,9 +1314,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>239486</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>65314</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2571750" cy="295275"/>
     <xdr:pic>
@@ -1335,7 +1338,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8130540" y="15377160"/>
+          <a:off x="8371115" y="15446828"/>
           <a:ext cx="2571750" cy="295275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1689,8 +1692,8 @@
   </sheetPr>
   <dimension ref="A1:Q118"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N36" sqref="N36"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1698,11 +1701,16 @@
     <col min="1" max="1" width="22.21875" style="71" customWidth="1"/>
     <col min="2" max="2" width="71" style="71" customWidth="1"/>
     <col min="3" max="6" width="12.6640625" style="71"/>
-    <col min="7" max="7" width="17.21875" style="71" customWidth="1"/>
-    <col min="8" max="16384" width="12.6640625" style="71"/>
+    <col min="7" max="7" width="19.5546875" style="71" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.88671875" style="71" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="21.109375" style="71" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.88671875" style="71" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.109375" style="71" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="21.109375" style="71" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="12.6640625" style="71"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="106" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="104" t="s">
         <v>0</v>
       </c>
